--- a/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
@@ -42,14 +42,14 @@
     <t>链接</t>
   </si>
   <si>
-    <t xml:space="preserve">耳机线/直头
+    <t xml:space="preserve">耳机线/
 三段式</t>
   </si>
   <si>
     <t>买弯头别买弹簧线的，不是很好用</t>
   </si>
   <si>
-    <t>https://detail.tmall.com/item.htm?_u=t2dmg8j26111&amp;id=663877001841&amp;skuId=5054026514300&amp;spm=a1z0k.1000777.0.0.278237deXDpV9x</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z0k.7386009.0.d4919233.348337de7C8KNc&amp;id=678235988829&amp;_u=t2dmg8j26111</t>
   </si>
   <si>
     <t>Type-C数据线</t>
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -199,6 +199,12 @@
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="蘋方-簡"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,13 +265,16 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -889,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -922,7 +931,7 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1"/>
@@ -932,44 +941,44 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" s="4" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="5" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <f>0.3*150</f>
         <v>45</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1">
@@ -992,7 +1001,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1001,7 +1010,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -1024,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1032,45 +1041,45 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="33">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="5" customFormat="1" ht="33">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>14.9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="33">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
@@ -1094,7 +1103,7 @@
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1"/>
@@ -1129,7 +1138,7 @@
         <v>4.5</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="1"/>
@@ -1160,7 +1169,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="1"/>
@@ -1195,7 +1204,7 @@
         <v>25.600000000000001</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="1"/>
@@ -1226,7 +1235,7 @@
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="1"/>
@@ -1255,7 +1264,7 @@
         <v>0.20000000000000001</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="1"/>
@@ -1288,7 +1297,7 @@
         <v>7.2000000000000008e-02</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="1"/>
@@ -1321,7 +1330,7 @@
         <v>0.23900000000000002</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1350,7 +1359,7 @@
       <c r="H17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="1"/>
@@ -1379,7 +1388,7 @@
         <v>1.24</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1406,37 +1415,37 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="16.5">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="5" customFormat="1" ht="16.5">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>60</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>200</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>0.29999999999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>17</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <f t="shared" si="2"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="1" t="s">
@@ -1509,14 +1518,14 @@
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
         <v>245.78699999999998</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" ht="33">
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="1"/>

--- a/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
@@ -68,9 +68,10 @@
     <t>外壳</t>
   </si>
   <si>
-    <t xml:space="preserve">价格为自行打印的物料价
+    <t xml:space="preserve">FDM打印，0.2元每克
 FDM打印推荐PETG材质
-推荐透明原色</t>
+推荐透明原色
+三维猴光固化，LEDO 6060，一套要144.6*2元。9000R（性能较差），一套要91.81*2元</t>
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?_u=a3u8db4m2de9&amp;id=649513649795&amp;skuId=4684077365853&amp;spm=a1z09.2.0.0.71e62e8dIKFyzM</t>
@@ -805,7 +806,7 @@
     <col customWidth="1" min="4" max="5" style="1" width="14.28125"/>
     <col min="6" max="6" style="1" width="9.140625"/>
     <col customWidth="1" min="7" max="7" style="1" width="14.28125"/>
-    <col customWidth="1" min="8" max="8" style="1" width="17.140625"/>
+    <col customWidth="1" min="8" max="8" style="1" width="28.57421875"/>
     <col customWidth="1" min="9" max="9" style="1" width="57.140625"/>
     <col min="10" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -941,20 +942,20 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" s="5" customFormat="1" ht="33" customHeight="1">
+    <row r="5" s="5" customFormat="1" ht="43.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <f>0.3*150</f>
-        <v>45</v>
+        <f>0.2*150</f>
+        <v>30</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -962,7 +963,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>17</v>
@@ -977,20 +978,20 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="6" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1">
-        <f>0.3*55</f>
-        <v>16.5</v>
+        <f>0.2*55</f>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -998,7 +999,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
@@ -1009,20 +1010,20 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="7" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1">
-        <f>0.3*10</f>
-        <v>3</v>
+        <f>0.2*10</f>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1030,7 +1031,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
@@ -1507,7 +1508,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G5:G8)</f>
-        <v>343.26999999999998</v>
+        <v>300.26999999999998</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1516,7 +1517,7 @@
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>245.78699999999998</v>
+        <v>202.78699999999998</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>54</v>

--- a/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>名称</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>不含耳机线、数据线、键帽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-SA 4.0</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,10 +285,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,14 +1519,16 @@
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
         <v>202.78699999999998</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" ht="33">
+    <row r="25" ht="16.5">
       <c r="D25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" s="1"/>

--- a/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
+++ b/4x6v6/物料-BOM/zh_CN/物料清单.xlsx
@@ -95,10 +95,11 @@
     <t>轴体</t>
   </si>
   <si>
-    <t>我对轴体的要求不高，能用就行</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.31f22e8dRLXEKe&amp;id=616113892809&amp;_u=f3u8db4mef8b</t>
+    <t xml:space="preserve">要性价比买灰木轴
+要便宜买高特轴，性能差点。但75元可以买3套，坏了就换</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a21n57.1.0.0.622e5be1rouPRQ&amp;id=721036741190&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
   <si>
     <t>镀锡铜线/0.4毫米/20米</t>
@@ -841,7 +842,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="49.5">
+    <row r="2" s="1" customFormat="1" ht="33">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -907,7 +908,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="82.5">
+    <row r="4" s="1" customFormat="1" ht="49.5">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1079,19 +1080,19 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="33">
+    <row r="9" s="1" customFormat="1" ht="66">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>25.699999999999999</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>25.699999999999999</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1099,12 +1100,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>25.699999999999999</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1"/>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="B24" s="1">
         <f>SUM(B9:B22)+SUM(F8:F12)+SUM(G5:G8)</f>
-        <v>300.26999999999998</v>
+        <v>349.56999999999999</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1517,7 +1518,7 @@
       </c>
       <c r="G24" s="1">
         <f>SUM(G2:G22)+SUM(F8:F12)</f>
-        <v>202.78699999999998</v>
+        <v>252.08699999999999</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>54</v>
